--- a/IDH.xlsx
+++ b/IDH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE96CBD-B028-4D21-9DAB-1467FD6E3C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BBF202-8523-4B40-93DB-6EE7E375801F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="14400" windowHeight="9172" xr2:uid="{5ACB08AC-B176-4AFA-9767-19085DBA5801}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{5ACB08AC-B176-4AFA-9767-19085DBA5801}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Fecha</t>
   </si>
@@ -47,142 +47,49 @@
     <t>Ranking IDH</t>
   </si>
   <si>
-    <t>0,767</t>
-  </si>
-  <si>
     <t>80º</t>
   </si>
   <si>
-    <t>0,764</t>
-  </si>
-  <si>
     <t>82º</t>
   </si>
   <si>
-    <t>0,771</t>
-  </si>
-  <si>
     <t>85º</t>
   </si>
   <si>
     <t>86º</t>
   </si>
   <si>
-    <t>0,757</t>
-  </si>
-  <si>
     <t>88º</t>
   </si>
   <si>
-    <t>0,755</t>
-  </si>
-  <si>
-    <t>0,736</t>
-  </si>
-  <si>
     <t>95º</t>
   </si>
   <si>
-    <t>0,728</t>
-  </si>
-  <si>
     <t>98º</t>
   </si>
   <si>
-    <t>0,722</t>
-  </si>
-  <si>
     <t>99º</t>
   </si>
   <si>
-    <t>0,718</t>
-  </si>
-  <si>
     <t>100º</t>
   </si>
   <si>
-    <t>0,713</t>
-  </si>
-  <si>
-    <t>0,708</t>
-  </si>
-  <si>
     <t>102º</t>
   </si>
   <si>
-    <t>0,701</t>
-  </si>
-  <si>
-    <t>0,697</t>
-  </si>
-  <si>
-    <t>0,692</t>
-  </si>
-  <si>
-    <t>0,683</t>
-  </si>
-  <si>
-    <t>0,674</t>
-  </si>
-  <si>
     <t>101º</t>
   </si>
   <si>
-    <t>0,663</t>
-  </si>
-  <si>
-    <t>0,659</t>
-  </si>
-  <si>
-    <t>0,657</t>
-  </si>
-  <si>
     <t>97º</t>
   </si>
   <si>
-    <t>0,651</t>
-  </si>
-  <si>
     <t>96º</t>
   </si>
   <si>
-    <t>0,646</t>
-  </si>
-  <si>
-    <t>0,640</t>
-  </si>
-  <si>
-    <t>0,633</t>
-  </si>
-  <si>
     <t>87º</t>
   </si>
   <si>
-    <t>0,627</t>
-  </si>
-  <si>
-    <t>0,620</t>
-  </si>
-  <si>
-    <t>0,613</t>
-  </si>
-  <si>
-    <t>0,607</t>
-  </si>
-  <si>
-    <t>0,600</t>
-  </si>
-  <si>
-    <t>0,593</t>
-  </si>
-  <si>
-    <t>0,583</t>
-  </si>
-  <si>
     <t>91º</t>
-  </si>
-  <si>
-    <t>0,577</t>
   </si>
 </sst>
 </file>
@@ -580,352 +487,352 @@
       <c r="A2" s="1">
         <v>2021</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>0.76400000000000001</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2019</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+      <c r="B4" s="1">
+        <v>0.77100000000000002</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="B5" s="1">
+        <v>0.76400000000000001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
+      <c r="B6" s="1">
+        <v>0.75700000000000001</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
+      <c r="B7" s="1">
+        <v>0.755</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2015</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+      <c r="B8" s="1">
+        <v>0.73599999999999999</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
+      <c r="B9" s="1">
+        <v>0.72799999999999998</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
+      <c r="B10" s="1">
+        <v>0.72199999999999998</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2012</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
+      <c r="B11" s="1">
+        <v>0.71799999999999997</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2011</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
+      <c r="B12" s="1">
+        <v>0.71299999999999997</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2010</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
+      <c r="B13" s="1">
+        <v>0.70799999999999996</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
+      <c r="B14" s="1">
+        <v>0.70099999999999996</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2008</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
+      <c r="B15" s="1">
+        <v>0.69699999999999995</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2007</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
+      <c r="B16" s="1">
+        <v>0.69199999999999995</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2006</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
+      <c r="B17" s="1">
+        <v>0.68300000000000005</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2005</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="1">
+        <v>0.67400000000000004</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2004</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
+      <c r="B19" s="1">
+        <v>0.66300000000000003</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
+      <c r="B20" s="1">
+        <v>0.65900000000000003</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2002</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
+      <c r="B21" s="1">
+        <v>0.65700000000000003</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2001</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>34</v>
+      <c r="B22" s="1">
+        <v>0.65100000000000002</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2000</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
+      <c r="B23" s="1">
+        <v>0.64600000000000002</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>1999</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>37</v>
+      <c r="B24" s="1">
+        <v>0.64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>1998</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
+      <c r="B25" s="1">
+        <v>0.63300000000000001</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>1997</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
+      <c r="B26" s="1">
+        <v>0.627</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>1996</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
+      <c r="B27" s="1">
+        <v>0.62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>1995</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>42</v>
+      <c r="B28" s="1">
+        <v>0.61299999999999999</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>1994</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
+      <c r="B29" s="1">
+        <v>0.60699999999999998</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>1993</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>44</v>
+      <c r="B30" s="1">
+        <v>0.6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>1992</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
+      <c r="B31" s="1">
+        <v>0.59299999999999997</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>1991</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>46</v>
+      <c r="B32" s="1">
+        <v>0.58299999999999996</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>1990</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>48</v>
+      <c r="B33" s="1">
+        <v>0.57699999999999996</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
